--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calca-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calca-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Calca</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>0.63636</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2045603692733198</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2783689285053439</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06806366666666668</v>
+        <v>0.1045313333333333</v>
       </c>
       <c r="N2">
-        <v>0.204191</v>
+        <v>0.313594</v>
       </c>
       <c r="O2">
-        <v>0.01337874269132675</v>
+        <v>0.1482480886574569</v>
       </c>
       <c r="P2">
-        <v>0.01993476300456479</v>
+        <v>0.2070264921079542</v>
       </c>
       <c r="Q2">
-        <v>0.01443766497333334</v>
+        <v>0.02217318642666666</v>
       </c>
       <c r="R2">
-        <v>0.12993898476</v>
+        <v>0.19955867784</v>
       </c>
       <c r="S2">
-        <v>0.01337874269132675</v>
+        <v>0.03032568375983323</v>
       </c>
       <c r="T2">
-        <v>0.01993476300456479</v>
+        <v>0.05762974278031126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +602,10 @@
         <v>0.63636</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2045603692733198</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2783689285053439</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,152 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.019385</v>
+        <v>0.6005795</v>
       </c>
       <c r="N3">
-        <v>10.03877</v>
+        <v>1.201159</v>
       </c>
       <c r="O3">
-        <v>0.9866212573086733</v>
+        <v>0.8517519113425431</v>
       </c>
       <c r="P3">
-        <v>0.9800652369954352</v>
+        <v>0.7929735078920458</v>
       </c>
       <c r="Q3">
-        <v>1.0647119462</v>
+        <v>0.12739492354</v>
       </c>
       <c r="R3">
-        <v>6.3882716772</v>
+        <v>0.7643695412400001</v>
       </c>
       <c r="S3">
-        <v>0.9866212573086733</v>
+        <v>0.1742346855134866</v>
       </c>
       <c r="T3">
-        <v>0.9800652369954352</v>
+        <v>0.2207391857250327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.8248355000000001</v>
+      </c>
+      <c r="H4">
+        <v>1.649671</v>
+      </c>
+      <c r="I4">
+        <v>0.7954396307266801</v>
+      </c>
+      <c r="J4">
+        <v>0.721631071494656</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.1045313333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.313594</v>
+      </c>
+      <c r="O4">
+        <v>0.1482480886574569</v>
+      </c>
+      <c r="P4">
+        <v>0.2070264921079542</v>
+      </c>
+      <c r="Q4">
+        <v>0.08622115459566666</v>
+      </c>
+      <c r="R4">
+        <v>0.517326927574</v>
+      </c>
+      <c r="S4">
+        <v>0.1179224048976237</v>
+      </c>
+      <c r="T4">
+        <v>0.1493967493276429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.8248355000000001</v>
+      </c>
+      <c r="H5">
+        <v>1.649671</v>
+      </c>
+      <c r="I5">
+        <v>0.7954396307266801</v>
+      </c>
+      <c r="J5">
+        <v>0.721631071494656</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.6005795</v>
+      </c>
+      <c r="N5">
+        <v>1.201159</v>
+      </c>
+      <c r="O5">
+        <v>0.8517519113425431</v>
+      </c>
+      <c r="P5">
+        <v>0.7929735078920458</v>
+      </c>
+      <c r="Q5">
+        <v>0.4953792921722501</v>
+      </c>
+      <c r="R5">
+        <v>1.981517168689</v>
+      </c>
+      <c r="S5">
+        <v>0.6775172258290565</v>
+      </c>
+      <c r="T5">
+        <v>0.5722343221670131</v>
       </c>
     </row>
   </sheetData>
